--- a/dok/Lambda, Stream.xlsx
+++ b/dok/Lambda, Stream.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <r>
       <t>boolean</t>
@@ -372,7 +372,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Stream.generate(Supplier)</t>
+      <t>filter(Predicate)</t>
     </r>
   </si>
   <si>
@@ -389,7 +389,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Stream.iterate()</t>
+      <t>distinct()</t>
     </r>
   </si>
   <si>
@@ -406,7 +406,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>filter(Predicate)</t>
+      <t>map(Function)</t>
     </r>
   </si>
   <si>
@@ -423,7 +423,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>distinct()</t>
+      <t>sorted(Comparator)</t>
     </r>
   </si>
   <si>
@@ -440,7 +440,109 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>map(Function)</t>
+      <t>peek(Consumer)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optional&lt;T&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>findFirst()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optional&lt;T&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optional&lt;T&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>forEach(Consumer)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">List&lt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>collect(Collector)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">U </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reduce()</t>
     </r>
   </si>
   <si>
@@ -457,8 +559,120 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sorted(Comparator)</t>
-    </r>
+      <t>limit(long)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IntStream </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mapToInt(ToIntFunction)</t>
+    </r>
+  </si>
+  <si>
+    <t>mapToLong - LongStream, mapToDouble - DoubleStream</t>
+  </si>
+  <si>
+    <t>IntStream: int-ek feldolgozására</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OptionalInt </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min()</t>
+    </r>
+  </si>
+  <si>
+    <t>Primitívet tartalmazó Optional lesz</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IntSummaryStatistics </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>summaryStatistics()</t>
+    </r>
+  </si>
+  <si>
+    <t>min, max, count, average</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>allMatch(Predicate)</t>
+    </r>
+  </si>
+  <si>
+    <t>anyMatch(), noneMatch()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stream&lt;R&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flatMap(mapper&lt;T, Stream&lt;R&gt;&gt;)</t>
+    </r>
+  </si>
+  <si>
+    <t>Comparator</t>
+  </si>
+  <si>
+    <t>comparing()</t>
+  </si>
+  <si>
+    <t>thenComparing()</t>
+  </si>
+  <si>
+    <t>reverse()</t>
   </si>
   <si>
     <r>
@@ -474,109 +688,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>peek(Consumer)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Optional&lt;T&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>findFirst()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Optional&lt;T&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>min()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Optional&lt;T&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">void </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>forEach(Consumer)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">List&lt;&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>collect(Collector)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">U </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>reduce()</t>
+      <t>Stream.iterate(T seed, UnaryOperator&lt;T&gt; nextValue)</t>
     </r>
   </si>
   <si>
@@ -593,91 +705,8 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>limit(long)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">IntStream </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mapToInt(ToIntFunction)</t>
-    </r>
-  </si>
-  <si>
-    <t>mapToLong - LongStream, mapToDouble - DoubleStream</t>
-  </si>
-  <si>
-    <t>IntStream: int-ek feldolgozására</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OptionalInt </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>min()</t>
-    </r>
-  </si>
-  <si>
-    <t>Primitívet tartalmazó Optional lesz</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">IntSummaryStatistics </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>summaryStatistics()</t>
-    </r>
-  </si>
-  <si>
-    <t>min, max, count, average</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">boolean </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>allMatch(Predicate)</t>
-    </r>
-  </si>
-  <si>
-    <t>anyMatch(), noneMatch()</t>
+      <t>Stream.generate(Supplier&lt;T&gt;)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1039,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1265,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="3" t="s">
@@ -1245,7 +1274,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1259,125 +1288,150 @@
         <v>35</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C33" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C34" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="3" t="s">
-        <v>46</v>
+      <c r="C35" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="D40" s="5"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="8" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D41" s="5"/>
-      <c r="E41" s="3" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="6"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="5"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
       <c r="C45" s="8" t="s">
-        <v>53</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="C46" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="3" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C48" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>61</v>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
